--- a/docs/Messages.xlsx
+++ b/docs/Messages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="511" documentId="114_{25347382-6C22-4725-BD5F-9F7D76009BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7BBA0F4-A525-44EC-A6E1-7CB1AC611DDE}"/>
+  <xr:revisionPtr revIDLastSave="513" documentId="114_{25347382-6C22-4725-BD5F-9F7D76009BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94A40EF6-CAF9-4556-B964-3FD369E8E534}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,15 +285,9 @@
     <t>Ups, sin trampas, mi amig@.</t>
   </si>
   <si>
-    <t>No sauce found. Maybe try &lt;a href="{0}"&gt;Google Reverse Search&lt;/a&gt; or &lt;a href="{0}"&gt;Yandex&lt;/a&gt; instead? or see on &lt;a href="{0}"&gt;SauceNAO website&lt;/a&gt; to see all the results.</t>
-  </si>
-  <si>
     <t>SauceNAO Bot DLL</t>
   </si>
   <si>
-    <t>No se encontraron resultados. ¿Quizás desee intentar la &lt;a href="{0}"&gt;Busqueda Inversa de Google&lt;/a&gt; o &lt;a href="{0}"&gt;Yandex&lt;/a&gt; en su lugar? o ver en el sitio web de &lt;a href="{0}"&gt;SauceNAO&lt;/a&gt; para ver todos los resultados.</t>
-  </si>
-  <si>
     <t>HistoryErased</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t>Cancelar</t>
+  </si>
+  <si>
+    <t>No sauce found. Maybe try &lt;a href="{0}"&gt;Google Reverse Search&lt;/a&gt; or &lt;a href="{1}"&gt;Yandex&lt;/a&gt; instead? or see on &lt;a href="{2}"&gt;SauceNAO website&lt;/a&gt; to see all the results.</t>
+  </si>
+  <si>
+    <t>No se encontraron resultados. ¿Quizás desee intentar la &lt;a href="{0}"&gt;Busqueda Inversa de Google&lt;/a&gt; o &lt;a href="{1}"&gt;Yandex&lt;/a&gt; en su lugar? o ver en el sitio web de &lt;a href="{2}"&gt;SauceNAO&lt;/a&gt; para ver todos los resultados.</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -912,76 +912,76 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -1016,18 +1016,18 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1096,53 +1096,53 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -1200,18 +1200,18 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
